--- a/app/public/client/assets/template.xlsx
+++ b/app/public/client/assets/template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{10467833-3725-4C7D-BEE9-C44CBE2FE3BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D520E28-43D3-4158-B9AD-5DF77C45E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E3CD1F63-FE50-4CD3-8372-3C537BE4809C}"/>
   </bookViews>
@@ -41,12 +41,6 @@
     <t>Name</t>
   </si>
   <si>
-    <t>Priority (1-10)</t>
-  </si>
-  <si>
-    <t>Weight (1-10)</t>
-  </si>
-  <si>
     <t>Project</t>
   </si>
   <si>
@@ -72,6 +66,12 @@
   </si>
   <si>
     <t>school.mse1500.tests</t>
+  </si>
+  <si>
+    <t>Priority (0-100)</t>
+  </si>
+  <si>
+    <t>Weight (0-100)</t>
   </si>
 </sst>
 </file>
@@ -445,14 +445,14 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" style="2" customWidth="1"/>
     <col min="4" max="4" width="29.140625" style="1" customWidth="1"/>
     <col min="5" max="6" width="21.5703125" style="1"/>
     <col min="7" max="7" width="43.140625" style="1" customWidth="1"/>
@@ -464,36 +464,36 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="C2" s="2">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E2" s="5">
         <v>45170</v>
@@ -502,21 +502,21 @@
         <v>45179</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="C3" s="2">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E3" s="5">
         <v>45179</v>
@@ -525,7 +525,7 @@
         <v>45189</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/app/public/client/assets/template.xlsx
+++ b/app/public/client/assets/template.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7877249-CEE5-47B0-8B93-BCB829D4A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,81 +25,145 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t xml:space="preserve">Name</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Priority (0-100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Weight (0-100)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Earliest Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Due Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Until Date</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Notes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: HW 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school.mse1500.hw</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Put notes here…</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Example: Midterm 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">school.mse1500.tests</t>
-  </si>
-  <si>
-    <t xml:space="preserve">← Use “Until” for tasks that are not expected to be completed in advance</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Example: HW 1</t>
+  </si>
+  <si>
+    <t>school.mse1500.hw</t>
+  </si>
+  <si>
+    <t>Put notes here…</t>
+  </si>
+  <si>
+    <t>Example: Midterm 1</t>
+  </si>
+  <si>
+    <t>school.mse1500.tests</t>
+  </si>
+  <si>
+    <t>← Use “Until” for tasks that are not expected to be completed in advance</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Priority
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(0-100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weight
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(0-100)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Earliest Date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(M/D/YYYY; or  RefID for parent task)</t>
+    </r>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Temporary Ref. ID
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(Optional; used for dependencies)</t>
+    </r>
+  </si>
+  <si>
+    <t>Task Name</t>
+  </si>
+  <si>
+    <r>
+      <t>Due Date</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve">
+(M/D/YYYY)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Until Date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(M/D/YYYY)</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="0"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy"/>
-  </numFmts>
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -104,12 +173,19 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Courier New"/>
       <family val="3"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Courier New"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +197,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -129,117 +205,96 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="8">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
         <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546a"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="e7e6e6"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472c4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ed7d31"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="a5a5a5"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="ffc000"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5b9bd5"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70ad47"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563c1"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954f72"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
       </a:minorFont>
@@ -271,7 +326,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
         <a:gradFill>
           <a:gsLst>
@@ -295,7 +350,7 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -355,118 +410,120 @@
             </a:gs>
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
+          <a:tileRect/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="25.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="19.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="29.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="3" width="21.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="3" width="20.17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="43.14"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="16384" min="9" style="1" width="21.57"/>
+    <col min="1" max="1" width="22.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11" style="6" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="27.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="19.36328125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="13.6328125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="14.7265625" style="7" customWidth="1"/>
+    <col min="9" max="9" width="43.08984375" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="21.54296875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="F1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="C2" s="6">
+        <v>40</v>
+      </c>
+      <c r="D2" s="6">
+        <v>70</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="7">
+        <v>45901</v>
+      </c>
+      <c r="G2" s="7">
+        <v>45910</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="C3" s="6">
+        <v>100</v>
+      </c>
+      <c r="D3" s="6">
+        <v>100</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="7">
+        <v>45920</v>
+      </c>
+      <c r="I3" s="1" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>40</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>70</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="3" t="n">
-        <v>45170</v>
-      </c>
-      <c r="F2" s="3" t="n">
-        <v>45179</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>100</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>45179</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>45555</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/app/public/client/assets/template.xlsx
+++ b/app/public/client/assets/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7877249-CEE5-47B0-8B93-BCB829D4A38A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B11DDE4-F57A-4AB6-B298-B75E6E439021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="19">
   <si>
     <t>Project</t>
   </si>
@@ -81,25 +81,6 @@
       </rPr>
       <t>(0-100)</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Earliest Date
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="9"/>
-        <color theme="1"/>
-        <rFont val="Courier New"/>
-        <family val="3"/>
-      </rPr>
-      <t>(M/D/YYYY; or  RefID for parent task)</t>
-    </r>
-  </si>
-  <si>
-    <t>A</t>
   </si>
   <si>
     <r>
@@ -151,6 +132,34 @@
       </rPr>
       <t>(M/D/YYYY)</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Earliest Date
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>(M/D/YYYY; or comma-delimited RefIDs for depended tasks)</t>
+    </r>
+  </si>
+  <si>
+    <t>Example: HW 2</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A1,A2</t>
   </si>
 </sst>
 </file>
@@ -422,12 +431,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.54296875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +446,7 @@
     <col min="3" max="3" width="11" style="6" customWidth="1"/>
     <col min="4" max="4" width="9.26953125" style="6" customWidth="1"/>
     <col min="5" max="5" width="27.6328125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.36328125" style="7" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" style="7" customWidth="1"/>
     <col min="7" max="7" width="13.6328125" style="7" customWidth="1"/>
     <col min="8" max="8" width="14.7265625" style="7" customWidth="1"/>
     <col min="9" max="9" width="43.08984375" style="1" customWidth="1"/>
@@ -446,10 +455,10 @@
   <sheetData>
     <row r="1" spans="1:9" s="4" customFormat="1" ht="53" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -461,13 +470,13 @@
         <v>0</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>1</v>
@@ -475,7 +484,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>2</v>
@@ -513,13 +522,39 @@
         <v>6</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="H3" s="7">
         <v>45920</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="6">
+        <v>40</v>
+      </c>
+      <c r="D4" s="6">
+        <v>70</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="7">
+        <v>45919</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
